--- a/adminPanel/Generated_20_HAT_Trainees_Data.xlsx
+++ b/adminPanel/Generated_20_HAT_Trainees_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="265">
   <si>
     <t>Serial/ ID No.</t>
   </si>
@@ -73,751 +73,742 @@
     <t>Joining Date (mm/dd/YYYY)</t>
   </si>
   <si>
-    <t>Alexander Ahmed</t>
-  </si>
-  <si>
-    <t>Ali Rodriguez</t>
-  </si>
-  <si>
-    <t>Sophia Jones</t>
-  </si>
-  <si>
-    <t>Kamal Rodriguez</t>
-  </si>
-  <si>
-    <t>Andrew Wilson</t>
-  </si>
-  <si>
-    <t>Farzana Jackson</t>
-  </si>
-  <si>
-    <t>Christopher Thompson</t>
-  </si>
-  <si>
-    <t>Ali Ahmed</t>
-  </si>
-  <si>
-    <t>Alexander Jackson</t>
-  </si>
-  <si>
-    <t>Matthew Jackson</t>
-  </si>
-  <si>
-    <t>Emily Rodriguez</t>
-  </si>
-  <si>
-    <t>David Bari</t>
-  </si>
-  <si>
-    <t>David Thomas</t>
-  </si>
-  <si>
-    <t>Mary Martin</t>
-  </si>
-  <si>
-    <t>Mary Williams</t>
-  </si>
-  <si>
-    <t>Christopher White</t>
-  </si>
-  <si>
-    <t>Sophia Sultana</t>
-  </si>
-  <si>
-    <t>Sophia Jackson</t>
-  </si>
-  <si>
-    <t>Robert Rahman</t>
-  </si>
-  <si>
-    <t>Robert Jackson</t>
-  </si>
-  <si>
-    <t>Elizabeth Garcia</t>
-  </si>
-  <si>
-    <t>Ryan Smith</t>
+    <t>Robert Miller</t>
+  </si>
+  <si>
+    <t>Benjamin Wilson</t>
+  </si>
+  <si>
+    <t>Robert Taylor</t>
+  </si>
+  <si>
+    <t>Alexander Martinez</t>
+  </si>
+  <si>
+    <t>Farzana Martinez</t>
+  </si>
+  <si>
+    <t>James Chowdhury</t>
+  </si>
+  <si>
+    <t>Andrew Bari</t>
+  </si>
+  <si>
+    <t>Farzana Miller</t>
+  </si>
+  <si>
+    <t>Robert Williams</t>
+  </si>
+  <si>
+    <t>Joshua Moore</t>
+  </si>
+  <si>
+    <t>Ali Thomas</t>
+  </si>
+  <si>
+    <t>Sophia Moore</t>
+  </si>
+  <si>
+    <t>Michael Johnson</t>
+  </si>
+  <si>
+    <t>Jennifer White</t>
+  </si>
+  <si>
+    <t>Sami Wilson</t>
+  </si>
+  <si>
+    <t>Farzana Jones</t>
+  </si>
+  <si>
+    <t>Rahim Moore</t>
+  </si>
+  <si>
+    <t>Sophia Mollah</t>
+  </si>
+  <si>
+    <t>David Martin</t>
+  </si>
+  <si>
+    <t>Benjamin Moore</t>
+  </si>
+  <si>
+    <t>Christopher Davis</t>
+  </si>
+  <si>
+    <t>Joseph Islam</t>
+  </si>
+  <si>
+    <t>Emily Ahmed</t>
+  </si>
+  <si>
+    <t>Ali Chowdhury</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Maya Bari</t>
+  </si>
+  <si>
+    <t>Andrew Mollah</t>
+  </si>
+  <si>
+    <t>Linda Williams</t>
+  </si>
+  <si>
+    <t>Patricia Jackson</t>
+  </si>
+  <si>
+    <t>Joshua Anderson</t>
+  </si>
+  <si>
+    <t>Charles Davis</t>
+  </si>
+  <si>
+    <t>John Mollah</t>
+  </si>
+  <si>
+    <t>Nadia Taylor</t>
+  </si>
+  <si>
+    <t>Tariq Khan</t>
+  </si>
+  <si>
+    <t>Hasan Thompson</t>
+  </si>
+  <si>
+    <t>Mary Rahman</t>
+  </si>
+  <si>
+    <t>Hasan Bari</t>
   </si>
   <si>
     <t>Christopher Mollah</t>
   </si>
   <si>
-    <t>Emily Williams</t>
-  </si>
-  <si>
-    <t>Joseph Anderson</t>
-  </si>
-  <si>
-    <t>Mary Jackson</t>
-  </si>
-  <si>
-    <t>Ryan Jackson</t>
-  </si>
-  <si>
-    <t>Joseph Wilson</t>
-  </si>
-  <si>
-    <t>Patricia Rodriguez</t>
-  </si>
-  <si>
-    <t>Mary Khan</t>
-  </si>
-  <si>
-    <t>Emily Rahman</t>
-  </si>
-  <si>
-    <t>James Moore</t>
-  </si>
-  <si>
-    <t>Christopher Miller</t>
-  </si>
-  <si>
-    <t>Ali Jackson</t>
+    <t>Jessica Johnson</t>
+  </si>
+  <si>
+    <t>Benjamin Chowdhury</t>
+  </si>
+  <si>
+    <t>Michael Sultana</t>
+  </si>
+  <si>
+    <t>Charles Smith</t>
+  </si>
+  <si>
+    <t>Matthew Wilson</t>
+  </si>
+  <si>
+    <t>Mary Thomas</t>
+  </si>
+  <si>
+    <t>James Davis</t>
+  </si>
+  <si>
+    <t>Andrew Martinez</t>
+  </si>
+  <si>
+    <t>Emily Jackson</t>
+  </si>
+  <si>
+    <t>Hasan Hossain</t>
+  </si>
+  <si>
+    <t>Sophia Lopez</t>
+  </si>
+  <si>
+    <t>Patricia Brown</t>
+  </si>
+  <si>
+    <t>Linda Wilson</t>
+  </si>
+  <si>
+    <t>Kamal Ahmed</t>
   </si>
   <si>
     <t>Joshua Hossain</t>
   </si>
   <si>
-    <t>Alexander Rodriguez</t>
-  </si>
-  <si>
-    <t>Matthew Thomas</t>
-  </si>
-  <si>
-    <t>Ali Johnson</t>
-  </si>
-  <si>
-    <t>Thomas Jones</t>
-  </si>
-  <si>
-    <t>Matthew Johnson</t>
-  </si>
-  <si>
-    <t>Maya Martin</t>
-  </si>
-  <si>
-    <t>Joseph Mollah</t>
-  </si>
-  <si>
-    <t>James Mollah</t>
-  </si>
-  <si>
-    <t>Matthew Anderson</t>
-  </si>
-  <si>
-    <t>Sarah Thompson</t>
-  </si>
-  <si>
-    <t>Daniel Wilson</t>
-  </si>
-  <si>
-    <t>Matthew Garcia</t>
-  </si>
-  <si>
-    <t>Michael Khan</t>
-  </si>
-  <si>
-    <t>Hasan Miller</t>
-  </si>
-  <si>
-    <t>Anika Williams</t>
-  </si>
-  <si>
-    <t>Thomas White</t>
-  </si>
-  <si>
-    <t>Sophia Chowdhury</t>
-  </si>
-  <si>
-    <t>Ryan Rodriguez</t>
-  </si>
-  <si>
-    <t>Joshua Smith</t>
-  </si>
-  <si>
-    <t>Joshua Garcia</t>
-  </si>
-  <si>
-    <t>Tariq Mollah</t>
-  </si>
-  <si>
-    <t>Joseph Sultana</t>
-  </si>
-  <si>
-    <t>Hasan Rahman</t>
-  </si>
-  <si>
-    <t>Patricia Miller</t>
+    <t>Emma Miller</t>
+  </si>
+  <si>
+    <t>Joseph White</t>
+  </si>
+  <si>
+    <t>Michael Moore</t>
+  </si>
+  <si>
+    <t>Laura Sultana</t>
+  </si>
+  <si>
+    <t>David Garcia</t>
+  </si>
+  <si>
+    <t>Hasan Mollah</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>Hinduism</t>
+  </si>
+  <si>
+    <t>Islam</t>
   </si>
   <si>
     <t>Christianity</t>
   </si>
   <si>
-    <t>Hinduism</t>
-  </si>
-  <si>
     <t>Buddhism</t>
   </si>
   <si>
-    <t>Islam</t>
-  </si>
-  <si>
-    <t>01/02/1986</t>
-  </si>
-  <si>
-    <t>05/26/1996</t>
-  </si>
-  <si>
-    <t>03/02/1982</t>
-  </si>
-  <si>
-    <t>07/07/1993</t>
-  </si>
-  <si>
-    <t>12/23/1998</t>
-  </si>
-  <si>
-    <t>09/18/1992</t>
-  </si>
-  <si>
-    <t>05/19/1999</t>
-  </si>
-  <si>
-    <t>05/20/1990</t>
-  </si>
-  <si>
-    <t>01/17/1983</t>
-  </si>
-  <si>
-    <t>11/12/1996</t>
-  </si>
-  <si>
-    <t>12/12/1991</t>
-  </si>
-  <si>
-    <t>06/03/1986</t>
-  </si>
-  <si>
-    <t>05/18/1981</t>
-  </si>
-  <si>
-    <t>09/19/1998</t>
-  </si>
-  <si>
-    <t>05/17/1994</t>
-  </si>
-  <si>
-    <t>11/15/1999</t>
-  </si>
-  <si>
-    <t>10/03/1996</t>
-  </si>
-  <si>
-    <t>12/18/1981</t>
-  </si>
-  <si>
-    <t>08/12/1995</t>
-  </si>
-  <si>
-    <t>05/05/1981</t>
+    <t>12/26/1980</t>
+  </si>
+  <si>
+    <t>03/27/1983</t>
+  </si>
+  <si>
+    <t>07/03/1991</t>
+  </si>
+  <si>
+    <t>07/04/1987</t>
+  </si>
+  <si>
+    <t>07/18/1999</t>
+  </si>
+  <si>
+    <t>02/24/1999</t>
+  </si>
+  <si>
+    <t>08/10/1981</t>
+  </si>
+  <si>
+    <t>06/22/1980</t>
+  </si>
+  <si>
+    <t>07/11/1983</t>
+  </si>
+  <si>
+    <t>02/14/1982</t>
+  </si>
+  <si>
+    <t>02/13/1986</t>
+  </si>
+  <si>
+    <t>02/17/1982</t>
+  </si>
+  <si>
+    <t>05/21/1984</t>
+  </si>
+  <si>
+    <t>04/14/1988</t>
+  </si>
+  <si>
+    <t>09/22/1991</t>
+  </si>
+  <si>
+    <t>01/21/1994</t>
+  </si>
+  <si>
+    <t>08/07/1985</t>
+  </si>
+  <si>
+    <t>07/01/1980</t>
+  </si>
+  <si>
+    <t>04/22/1994</t>
+  </si>
+  <si>
+    <t>05/22/1998</t>
   </si>
   <si>
     <t>Bangladeshi</t>
   </si>
   <si>
-    <t>7676108725260</t>
-  </si>
-  <si>
-    <t>1901123935145</t>
-  </si>
-  <si>
-    <t>9127522619398</t>
-  </si>
-  <si>
-    <t>8453166455218</t>
-  </si>
-  <si>
-    <t>4221443369563</t>
-  </si>
-  <si>
-    <t>6031573245454</t>
-  </si>
-  <si>
-    <t>8357404749215</t>
-  </si>
-  <si>
-    <t>9642237374770</t>
-  </si>
-  <si>
-    <t>1742416306763</t>
-  </si>
-  <si>
-    <t>5187271003440</t>
-  </si>
-  <si>
-    <t>1548425918400</t>
-  </si>
-  <si>
-    <t>2070064888488</t>
-  </si>
-  <si>
-    <t>2793378702708</t>
-  </si>
-  <si>
-    <t>3898080181949</t>
-  </si>
-  <si>
-    <t>1734931320048</t>
-  </si>
-  <si>
-    <t>9422765490700</t>
-  </si>
-  <si>
-    <t>7427611636017</t>
-  </si>
-  <si>
-    <t>7873327949064</t>
-  </si>
-  <si>
-    <t>8967797591204</t>
-  </si>
-  <si>
-    <t>5819960457070</t>
-  </si>
-  <si>
-    <t>823 2nd Ave, City, Country</t>
-  </si>
-  <si>
-    <t>573 Park Ave, City, Country</t>
-  </si>
-  <si>
-    <t>646 Park Ave, City, Country</t>
-  </si>
-  <si>
-    <t>716 High St, City, Country</t>
-  </si>
-  <si>
-    <t>449 Park Ave, City, Country</t>
-  </si>
-  <si>
-    <t>253 3rd St, City, Country</t>
-  </si>
-  <si>
-    <t>928 Main St, City, Country</t>
-  </si>
-  <si>
-    <t>936 High St, City, Country</t>
-  </si>
-  <si>
-    <t>76 Main St, City, Country</t>
-  </si>
-  <si>
-    <t>87 2nd Ave, City, Country</t>
-  </si>
-  <si>
-    <t>174 2nd Ave, City, Country</t>
-  </si>
-  <si>
-    <t>441 2nd Ave, City, Country</t>
-  </si>
-  <si>
-    <t>773 2nd Ave, City, Country</t>
-  </si>
-  <si>
-    <t>646 3rd St, City, Country</t>
-  </si>
-  <si>
-    <t>194 2nd Ave, City, Country</t>
-  </si>
-  <si>
-    <t>444 Park Ave, City, Country</t>
-  </si>
-  <si>
-    <t>604 3rd St, City, Country</t>
-  </si>
-  <si>
-    <t>672 2nd Ave, City, Country</t>
-  </si>
-  <si>
-    <t>557 High St, City, Country</t>
-  </si>
-  <si>
-    <t>927 2nd Ave, City, Country</t>
-  </si>
-  <si>
-    <t>280 3rd St, City, Country</t>
-  </si>
-  <si>
-    <t>577 High St, City, Country</t>
-  </si>
-  <si>
-    <t>132 Park Ave, City, Country</t>
-  </si>
-  <si>
-    <t>461 2nd Ave, City, Country</t>
-  </si>
-  <si>
-    <t>800 High St, City, Country</t>
-  </si>
-  <si>
-    <t>270 Main St, City, Country</t>
-  </si>
-  <si>
-    <t>459 Park Ave, City, Country</t>
-  </si>
-  <si>
-    <t>656 High St, City, Country</t>
-  </si>
-  <si>
-    <t>884 High St, City, Country</t>
-  </si>
-  <si>
-    <t>550 Main St, City, Country</t>
-  </si>
-  <si>
-    <t>850 Main St, City, Country</t>
-  </si>
-  <si>
-    <t>115 Park Ave, City, Country</t>
-  </si>
-  <si>
-    <t>189 2nd Ave, City, Country</t>
-  </si>
-  <si>
-    <t>35 3rd St, City, Country</t>
-  </si>
-  <si>
-    <t>118 Park Ave, City, Country</t>
-  </si>
-  <si>
-    <t>46 2nd Ave, City, Country</t>
-  </si>
-  <si>
-    <t>731 Main St, City, Country</t>
-  </si>
-  <si>
-    <t>385 High St, City, Country</t>
-  </si>
-  <si>
-    <t>448 3rd St, City, Country</t>
-  </si>
-  <si>
-    <t>653 Park Ave, City, Country</t>
-  </si>
-  <si>
-    <t>01553995468</t>
-  </si>
-  <si>
-    <t>01523561375</t>
-  </si>
-  <si>
-    <t>01526835238</t>
-  </si>
-  <si>
-    <t>01917634160</t>
-  </si>
-  <si>
-    <t>01868257681</t>
-  </si>
-  <si>
-    <t>01842948766</t>
-  </si>
-  <si>
-    <t>01816280382</t>
-  </si>
-  <si>
-    <t>01795245722</t>
-  </si>
-  <si>
-    <t>01872097012</t>
-  </si>
-  <si>
-    <t>01541849980</t>
-  </si>
-  <si>
-    <t>01569108730</t>
-  </si>
-  <si>
-    <t>01507002913</t>
-  </si>
-  <si>
-    <t>01690825161</t>
-  </si>
-  <si>
-    <t>01941913995</t>
-  </si>
-  <si>
-    <t>01693159559</t>
-  </si>
-  <si>
-    <t>01782484159</t>
-  </si>
-  <si>
-    <t>01943693148</t>
-  </si>
-  <si>
-    <t>01648233453</t>
-  </si>
-  <si>
-    <t>01849358647</t>
-  </si>
-  <si>
-    <t>01987653165</t>
-  </si>
-  <si>
-    <t>01537175083</t>
-  </si>
-  <si>
-    <t>01919758832</t>
-  </si>
-  <si>
-    <t>01538834685</t>
-  </si>
-  <si>
-    <t>01652874063</t>
-  </si>
-  <si>
-    <t>01970424827</t>
-  </si>
-  <si>
-    <t>01950176012</t>
-  </si>
-  <si>
-    <t>01761007635</t>
-  </si>
-  <si>
-    <t>01835291067</t>
-  </si>
-  <si>
-    <t>01753113588</t>
-  </si>
-  <si>
-    <t>01609416772</t>
-  </si>
-  <si>
-    <t>01975796757</t>
-  </si>
-  <si>
-    <t>01517873079</t>
-  </si>
-  <si>
-    <t>01561387558</t>
-  </si>
-  <si>
-    <t>01640506931</t>
-  </si>
-  <si>
-    <t>01840368878</t>
-  </si>
-  <si>
-    <t>01817038769</t>
-  </si>
-  <si>
-    <t>01917364474</t>
-  </si>
-  <si>
-    <t>01954573619</t>
-  </si>
-  <si>
-    <t>01843118333</t>
-  </si>
-  <si>
-    <t>01713905761</t>
-  </si>
-  <si>
-    <t>81f56lonr@test1.com</t>
-  </si>
-  <si>
-    <t>kgs6wbzq@fakemail1.com</t>
-  </si>
-  <si>
-    <t>xajdqz@example1.org</t>
-  </si>
-  <si>
-    <t>occ7ht4o@example1.org</t>
-  </si>
-  <si>
-    <t>sxheg@fakemail1.com</t>
-  </si>
-  <si>
-    <t>dfvug@example1.org</t>
-  </si>
-  <si>
-    <t>zfmeesz@fakemail1.com</t>
-  </si>
-  <si>
-    <t>run95gzym@dummy1.com</t>
-  </si>
-  <si>
-    <t>lmmqxqylw@test1.com</t>
-  </si>
-  <si>
-    <t>onad0j@test1.com</t>
-  </si>
-  <si>
-    <t>hnctm3@fakemail1.com</t>
-  </si>
-  <si>
-    <t>lidh8x@fakemail1.com</t>
-  </si>
-  <si>
-    <t>q1y7lnsi@dummy1.com</t>
-  </si>
-  <si>
-    <t>s1vzjq@fakemail1.com</t>
-  </si>
-  <si>
-    <t>q67anuhq@fakemail1.com</t>
-  </si>
-  <si>
-    <t>fxnsniz8@example1.org</t>
-  </si>
-  <si>
-    <t>godnbv@fakemail1.com</t>
-  </si>
-  <si>
-    <t>0egx2dxy@example1.org</t>
-  </si>
-  <si>
-    <t>5qqjmh4o1@dummy1.com</t>
-  </si>
-  <si>
-    <t>8j273wbp4o@dummy1.com</t>
+    <t>6826699148569</t>
+  </si>
+  <si>
+    <t>7377544241805</t>
+  </si>
+  <si>
+    <t>5230271215813</t>
+  </si>
+  <si>
+    <t>7790926509498</t>
+  </si>
+  <si>
+    <t>2233986170641</t>
+  </si>
+  <si>
+    <t>9616900769508</t>
+  </si>
+  <si>
+    <t>3835544248563</t>
+  </si>
+  <si>
+    <t>8373498743544</t>
+  </si>
+  <si>
+    <t>3943824899425</t>
+  </si>
+  <si>
+    <t>2401770545677</t>
+  </si>
+  <si>
+    <t>4329175666878</t>
+  </si>
+  <si>
+    <t>4080715630193</t>
+  </si>
+  <si>
+    <t>5423022585952</t>
+  </si>
+  <si>
+    <t>6321421491785</t>
+  </si>
+  <si>
+    <t>9352603661016</t>
+  </si>
+  <si>
+    <t>7637599828246</t>
+  </si>
+  <si>
+    <t>7107536793806</t>
+  </si>
+  <si>
+    <t>9617880033637</t>
+  </si>
+  <si>
+    <t>2276829192676</t>
+  </si>
+  <si>
+    <t>7770832847687</t>
+  </si>
+  <si>
+    <t>799 3rd St, City, Country</t>
+  </si>
+  <si>
+    <t>556 Main St, City, Country</t>
+  </si>
+  <si>
+    <t>154 Park Ave, City, Country</t>
+  </si>
+  <si>
+    <t>797 3rd St, City, Country</t>
+  </si>
+  <si>
+    <t>235 Main St, City, Country</t>
+  </si>
+  <si>
+    <t>224 Park Ave, City, Country</t>
+  </si>
+  <si>
+    <t>896 3rd St, City, Country</t>
+  </si>
+  <si>
+    <t>745 Park Ave, City, Country</t>
+  </si>
+  <si>
+    <t>674 3rd St, City, Country</t>
+  </si>
+  <si>
+    <t>404 Main St, City, Country</t>
+  </si>
+  <si>
+    <t>727 High St, City, Country</t>
+  </si>
+  <si>
+    <t>209 2nd Ave, City, Country</t>
+  </si>
+  <si>
+    <t>965 Main St, City, Country</t>
+  </si>
+  <si>
+    <t>901 3rd St, City, Country</t>
+  </si>
+  <si>
+    <t>343 2nd Ave, City, Country</t>
+  </si>
+  <si>
+    <t>87 Park Ave, City, Country</t>
+  </si>
+  <si>
+    <t>747 High St, City, Country</t>
+  </si>
+  <si>
+    <t>527 Park Ave, City, Country</t>
+  </si>
+  <si>
+    <t>172 Main St, City, Country</t>
+  </si>
+  <si>
+    <t>561 Park Ave, City, Country</t>
+  </si>
+  <si>
+    <t>586 High St, City, Country</t>
+  </si>
+  <si>
+    <t>730 High St, City, Country</t>
+  </si>
+  <si>
+    <t>591 High St, City, Country</t>
+  </si>
+  <si>
+    <t>751 3rd St, City, Country</t>
+  </si>
+  <si>
+    <t>986 2nd Ave, City, Country</t>
+  </si>
+  <si>
+    <t>927 High St, City, Country</t>
+  </si>
+  <si>
+    <t>665 Park Ave, City, Country</t>
+  </si>
+  <si>
+    <t>94 3rd St, City, Country</t>
+  </si>
+  <si>
+    <t>217 Main St, City, Country</t>
+  </si>
+  <si>
+    <t>658 Park Ave, City, Country</t>
+  </si>
+  <si>
+    <t>378 3rd St, City, Country</t>
+  </si>
+  <si>
+    <t>658 High St, City, Country</t>
+  </si>
+  <si>
+    <t>529 3rd St, City, Country</t>
+  </si>
+  <si>
+    <t>55 High St, City, Country</t>
+  </si>
+  <si>
+    <t>896 2nd Ave, City, Country</t>
+  </si>
+  <si>
+    <t>250 High St, City, Country</t>
+  </si>
+  <si>
+    <t>825 Main St, City, Country</t>
+  </si>
+  <si>
+    <t>410 Main St, City, Country</t>
+  </si>
+  <si>
+    <t>305 High St, City, Country</t>
+  </si>
+  <si>
+    <t>208 2nd Ave, City, Country</t>
+  </si>
+  <si>
+    <t>01627580129</t>
+  </si>
+  <si>
+    <t>01950024859</t>
+  </si>
+  <si>
+    <t>01721980354</t>
+  </si>
+  <si>
+    <t>01642774479</t>
+  </si>
+  <si>
+    <t>01538005587</t>
+  </si>
+  <si>
+    <t>01961865565</t>
+  </si>
+  <si>
+    <t>01674851699</t>
+  </si>
+  <si>
+    <t>01721595559</t>
+  </si>
+  <si>
+    <t>01756880607</t>
+  </si>
+  <si>
+    <t>01585736784</t>
+  </si>
+  <si>
+    <t>01964510190</t>
+  </si>
+  <si>
+    <t>01754658201</t>
+  </si>
+  <si>
+    <t>01817046813</t>
+  </si>
+  <si>
+    <t>01981610688</t>
+  </si>
+  <si>
+    <t>01835264318</t>
+  </si>
+  <si>
+    <t>01863346471</t>
+  </si>
+  <si>
+    <t>01520238155</t>
+  </si>
+  <si>
+    <t>01604683992</t>
+  </si>
+  <si>
+    <t>01885562418</t>
+  </si>
+  <si>
+    <t>01667343256</t>
+  </si>
+  <si>
+    <t>01509909604</t>
+  </si>
+  <si>
+    <t>01938769837</t>
+  </si>
+  <si>
+    <t>01561529424</t>
+  </si>
+  <si>
+    <t>01629298584</t>
+  </si>
+  <si>
+    <t>01615721115</t>
+  </si>
+  <si>
+    <t>01559530612</t>
+  </si>
+  <si>
+    <t>01617489321</t>
+  </si>
+  <si>
+    <t>01894157606</t>
+  </si>
+  <si>
+    <t>01933607155</t>
+  </si>
+  <si>
+    <t>01785502935</t>
+  </si>
+  <si>
+    <t>01584788437</t>
+  </si>
+  <si>
+    <t>01520625508</t>
+  </si>
+  <si>
+    <t>01641630008</t>
+  </si>
+  <si>
+    <t>01837934105</t>
+  </si>
+  <si>
+    <t>01925771436</t>
+  </si>
+  <si>
+    <t>01789903275</t>
+  </si>
+  <si>
+    <t>01593334594</t>
+  </si>
+  <si>
+    <t>01728592126</t>
+  </si>
+  <si>
+    <t>01708608333</t>
+  </si>
+  <si>
+    <t>01978959904</t>
+  </si>
+  <si>
+    <t>upkuhiczf@test1.com</t>
+  </si>
+  <si>
+    <t>y87ofd9cm@fakemail1.com</t>
+  </si>
+  <si>
+    <t>p42lm4r101@test1.com</t>
+  </si>
+  <si>
+    <t>ue6zgey20@dummy1.com</t>
+  </si>
+  <si>
+    <t>s9zq7lq3q3@dummy1.com</t>
+  </si>
+  <si>
+    <t>ks9fhj@test1.com</t>
+  </si>
+  <si>
+    <t>1bo5p9m2k@dummy1.com</t>
+  </si>
+  <si>
+    <t>f7p43@dummy1.com</t>
+  </si>
+  <si>
+    <t>2pdg8@fakemail1.com</t>
+  </si>
+  <si>
+    <t>etlk8l@example1.org</t>
+  </si>
+  <si>
+    <t>c5bxzr@dummy1.com</t>
+  </si>
+  <si>
+    <t>94ok7vsx@test1.com</t>
+  </si>
+  <si>
+    <t>zn7kb2@fakemail1.com</t>
+  </si>
+  <si>
+    <t>pnw5dq74@example1.org</t>
+  </si>
+  <si>
+    <t>bsva5@example1.org</t>
+  </si>
+  <si>
+    <t>jmshkezai@example1.org</t>
+  </si>
+  <si>
+    <t>arc79@fakemail1.com</t>
+  </si>
+  <si>
+    <t>hzwbz@dummy1.com</t>
+  </si>
+  <si>
+    <t>ejp50fyt9@fakemail1.com</t>
+  </si>
+  <si>
+    <t>zapzo722@dummy1.com</t>
+  </si>
+  <si>
+    <t>HSC</t>
+  </si>
+  <si>
+    <t>Diploma</t>
+  </si>
+  <si>
+    <t>Master's</t>
   </si>
   <si>
     <t>SSC</t>
   </si>
   <si>
-    <t>Master's</t>
-  </si>
-  <si>
     <t>Bachelor's</t>
   </si>
   <si>
-    <t>HSC</t>
-  </si>
-  <si>
-    <t>Diploma</t>
-  </si>
-  <si>
     <t>Commerce</t>
   </si>
   <si>
+    <t>Arts</t>
+  </si>
+  <si>
     <t>Engineering</t>
   </si>
   <si>
     <t>Science</t>
   </si>
   <si>
-    <t>Arts</t>
-  </si>
-  <si>
     <t>Business</t>
   </si>
   <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>Assistant Programmer</t>
+  </si>
+  <si>
+    <t>Network Engineer</t>
+  </si>
+  <si>
     <t>Back-end Developer</t>
   </si>
   <si>
-    <t>IT Consultant</t>
-  </si>
-  <si>
-    <t>Assistant Programmer</t>
-  </si>
-  <si>
-    <t>Front-end Developer</t>
-  </si>
-  <si>
-    <t>Business Analyst</t>
-  </si>
-  <si>
-    <t>Junior Analyst</t>
-  </si>
-  <si>
-    <t>Senior Developer</t>
-  </si>
-  <si>
-    <t>Software Developer</t>
-  </si>
-  <si>
     <t>AI Engineer</t>
   </si>
   <si>
-    <t>DevOps Engineer</t>
-  </si>
-  <si>
     <t>Project Manager</t>
   </si>
   <si>
-    <t>Cyber Security Specialist</t>
-  </si>
-  <si>
     <t>Database Administrator</t>
   </si>
   <si>
-    <t>04/09/1997</t>
-  </si>
-  <si>
-    <t>04/14/1998</t>
-  </si>
-  <si>
-    <t>11/05/1997</t>
-  </si>
-  <si>
-    <t>07/09/2000</t>
-  </si>
-  <si>
-    <t>07/13/1995</t>
-  </si>
-  <si>
-    <t>04/24/2000</t>
-  </si>
-  <si>
-    <t>07/11/1991</t>
-  </si>
-  <si>
-    <t>10/03/1982</t>
-  </si>
-  <si>
-    <t>07/02/1991</t>
-  </si>
-  <si>
-    <t>12/28/1991</t>
-  </si>
-  <si>
-    <t>02/13/1987</t>
-  </si>
-  <si>
-    <t>09/15/1987</t>
-  </si>
-  <si>
-    <t>08/09/1992</t>
-  </si>
-  <si>
-    <t>10/21/1995</t>
-  </si>
-  <si>
-    <t>05/13/1994</t>
-  </si>
-  <si>
-    <t>11/16/1984</t>
-  </si>
-  <si>
-    <t>06/25/1995</t>
-  </si>
-  <si>
-    <t>02/01/1982</t>
-  </si>
-  <si>
-    <t>04/03/1996</t>
-  </si>
-  <si>
-    <t>11/23/1993</t>
+    <t>System Administrator</t>
+  </si>
+  <si>
+    <t>Full Stack Developer</t>
+  </si>
+  <si>
+    <t>09/25/1987</t>
+  </si>
+  <si>
+    <t>03/18/1996</t>
+  </si>
+  <si>
+    <t>09/04/1995</t>
+  </si>
+  <si>
+    <t>08/28/1986</t>
+  </si>
+  <si>
+    <t>05/18/1999</t>
+  </si>
+  <si>
+    <t>10/10/1996</t>
+  </si>
+  <si>
+    <t>07/10/1985</t>
+  </si>
+  <si>
+    <t>09/15/1988</t>
+  </si>
+  <si>
+    <t>05/10/2000</t>
+  </si>
+  <si>
+    <t>08/22/1986</t>
+  </si>
+  <si>
+    <t>06/27/1983</t>
+  </si>
+  <si>
+    <t>04/11/1998</t>
+  </si>
+  <si>
+    <t>02/08/2000</t>
+  </si>
+  <si>
+    <t>06/17/1988</t>
+  </si>
+  <si>
+    <t>09/10/1999</t>
+  </si>
+  <si>
+    <t>10/21/1983</t>
+  </si>
+  <si>
+    <t>03/26/2000</t>
+  </si>
+  <si>
+    <t>01/01/1988</t>
+  </si>
+  <si>
+    <t>02/22/1994</t>
+  </si>
+  <si>
+    <t>02/14/1991</t>
   </si>
 </sst>
 </file>
@@ -1300,10 +1291,10 @@
         <v>235</v>
       </c>
       <c r="R2">
-        <v>20776</v>
+        <v>32376</v>
       </c>
       <c r="S2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1323,7 +1314,7 @@
         <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>85</v>
@@ -1353,16 +1344,16 @@
         <v>226</v>
       </c>
       <c r="P3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q3" t="s">
         <v>236</v>
       </c>
       <c r="R3">
-        <v>27493</v>
+        <v>30136</v>
       </c>
       <c r="S3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1382,7 +1373,7 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
         <v>86</v>
@@ -1412,16 +1403,16 @@
         <v>227</v>
       </c>
       <c r="P4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q4" t="s">
         <v>237</v>
       </c>
       <c r="R4">
-        <v>31619</v>
+        <v>38006</v>
       </c>
       <c r="S4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1438,10 +1429,10 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
         <v>87</v>
@@ -1468,19 +1459,19 @@
         <v>208</v>
       </c>
       <c r="O5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q5" t="s">
         <v>238</v>
       </c>
       <c r="R5">
-        <v>46120</v>
+        <v>26829</v>
       </c>
       <c r="S5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1497,7 +1488,7 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
         <v>80</v>
@@ -1527,19 +1518,19 @@
         <v>209</v>
       </c>
       <c r="O6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P6" t="s">
         <v>232</v>
       </c>
       <c r="Q6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R6">
-        <v>27531</v>
+        <v>44077</v>
       </c>
       <c r="S6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1556,10 +1547,10 @@
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
         <v>89</v>
@@ -1586,19 +1577,19 @@
         <v>210</v>
       </c>
       <c r="O7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R7">
-        <v>39798</v>
+        <v>25234</v>
       </c>
       <c r="S7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1645,19 +1636,19 @@
         <v>211</v>
       </c>
       <c r="O8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R8">
-        <v>20976</v>
+        <v>42522</v>
       </c>
       <c r="S8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1674,10 +1665,10 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
         <v>91</v>
@@ -1704,19 +1695,19 @@
         <v>212</v>
       </c>
       <c r="O9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="R9">
-        <v>27728</v>
+        <v>24952</v>
       </c>
       <c r="S9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1733,10 +1724,10 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
         <v>92</v>
@@ -1763,19 +1754,19 @@
         <v>213</v>
       </c>
       <c r="O10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R10">
-        <v>46288</v>
+        <v>38079</v>
       </c>
       <c r="S10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1795,7 +1786,7 @@
         <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
         <v>93</v>
@@ -1822,19 +1813,19 @@
         <v>214</v>
       </c>
       <c r="O11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R11">
-        <v>48630</v>
+        <v>40661</v>
       </c>
       <c r="S11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1881,19 +1872,19 @@
         <v>215</v>
       </c>
       <c r="O12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="R12">
-        <v>33488</v>
+        <v>37101</v>
       </c>
       <c r="S12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1913,7 +1904,7 @@
         <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
         <v>95</v>
@@ -1940,19 +1931,19 @@
         <v>216</v>
       </c>
       <c r="O13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R13">
-        <v>39421</v>
+        <v>40895</v>
       </c>
       <c r="S13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1960,7 +1951,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -1969,10 +1960,10 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
         <v>96</v>
@@ -1999,19 +1990,19 @@
         <v>217</v>
       </c>
       <c r="O14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q14" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="R14">
-        <v>33102</v>
+        <v>31951</v>
       </c>
       <c r="S14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2019,7 +2010,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
@@ -2028,7 +2019,7 @@
         <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -2058,19 +2049,19 @@
         <v>218</v>
       </c>
       <c r="O15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="R15">
-        <v>41277</v>
+        <v>43460</v>
       </c>
       <c r="S15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2087,10 +2078,10 @@
         <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
         <v>98</v>
@@ -2117,19 +2108,19 @@
         <v>219</v>
       </c>
       <c r="O16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R16">
-        <v>46015</v>
+        <v>46579</v>
       </c>
       <c r="S16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2149,7 +2140,7 @@
         <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
         <v>99</v>
@@ -2176,19 +2167,19 @@
         <v>220</v>
       </c>
       <c r="O17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="R17">
-        <v>41673</v>
+        <v>21294</v>
       </c>
       <c r="S17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2235,19 +2226,19 @@
         <v>221</v>
       </c>
       <c r="O18" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q18" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="R18">
-        <v>24239</v>
+        <v>34569</v>
       </c>
       <c r="S18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2264,10 +2255,10 @@
         <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
         <v>101</v>
@@ -2294,19 +2285,19 @@
         <v>222</v>
       </c>
       <c r="O19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q19" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="R19">
-        <v>41484</v>
+        <v>37797</v>
       </c>
       <c r="S19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2326,7 +2317,7 @@
         <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
         <v>102</v>
@@ -2359,13 +2350,13 @@
         <v>231</v>
       </c>
       <c r="Q20" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="R20">
-        <v>29832</v>
+        <v>44018</v>
       </c>
       <c r="S20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2382,10 +2373,10 @@
         <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
         <v>103</v>
@@ -2412,19 +2403,19 @@
         <v>224</v>
       </c>
       <c r="O21" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q21" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="R21">
-        <v>33046</v>
+        <v>40967</v>
       </c>
       <c r="S21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
